--- a/Code/Results/Cases/Case_8_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_52/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.426606289848792</v>
+        <v>2.42092398819608</v>
       </c>
       <c r="C2">
-        <v>1.056327899538871</v>
+        <v>1.224549679669337</v>
       </c>
       <c r="D2">
-        <v>0.002255529183640581</v>
+        <v>0.0170656040173931</v>
       </c>
       <c r="E2">
-        <v>0.03718179465558258</v>
+        <v>0.05195967521895994</v>
       </c>
       <c r="F2">
-        <v>3.004205281092339</v>
+        <v>2.16832117388833</v>
       </c>
       <c r="G2">
-        <v>0.0008248160510793749</v>
+        <v>0.01417215101917391</v>
       </c>
       <c r="H2">
-        <v>0.004973376164077004</v>
+        <v>0.002158755368634413</v>
       </c>
       <c r="I2">
-        <v>0.004662078440084816</v>
+        <v>0.001350229540737047</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.483541273408122</v>
+        <v>0.9168204476710002</v>
       </c>
       <c r="L2">
-        <v>0.1037589082126047</v>
+        <v>0.3954141263870596</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2974734359502023</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1020813277267223</v>
       </c>
       <c r="O2">
-        <v>0.691953959177404</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.7431661064701913</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.110847434641698</v>
+        <v>2.108581241791796</v>
       </c>
       <c r="C3">
-        <v>0.9178583238418128</v>
+        <v>1.060593541442927</v>
       </c>
       <c r="D3">
-        <v>0.001804911634810669</v>
+        <v>0.01572600762582077</v>
       </c>
       <c r="E3">
-        <v>0.03263272717176768</v>
+        <v>0.0474203622581193</v>
       </c>
       <c r="F3">
-        <v>2.734721755197342</v>
+        <v>1.994714136213403</v>
       </c>
       <c r="G3">
-        <v>0.0008306373125416185</v>
+        <v>0.02030588714284431</v>
       </c>
       <c r="H3">
-        <v>0.008548452413497665</v>
+        <v>0.004116672026058366</v>
       </c>
       <c r="I3">
-        <v>0.008089979882277998</v>
+        <v>0.002539250856327335</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.369155471219202</v>
+        <v>0.864999711303021</v>
       </c>
       <c r="L3">
-        <v>0.09140169383125851</v>
+        <v>0.3854679823520186</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2695460980404363</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.09294914036044943</v>
       </c>
       <c r="O3">
-        <v>0.6037264911569054</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.6473258323301323</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.917517753736377</v>
+        <v>1.916649643794159</v>
       </c>
       <c r="C4">
-        <v>0.8339684960117779</v>
+        <v>0.9607599549764814</v>
       </c>
       <c r="D4">
-        <v>0.001554579786743115</v>
+        <v>0.01495155112190716</v>
       </c>
       <c r="E4">
-        <v>0.02989622140484727</v>
+        <v>0.04465082352547256</v>
       </c>
       <c r="F4">
-        <v>2.569512070767033</v>
+        <v>1.887461393794837</v>
       </c>
       <c r="G4">
-        <v>0.000834323730136628</v>
+        <v>0.0247565006815782</v>
       </c>
       <c r="H4">
-        <v>0.01130618100304913</v>
+        <v>0.005682778764279806</v>
       </c>
       <c r="I4">
-        <v>0.01080909221245907</v>
+        <v>0.003607765654165984</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.298632579529112</v>
+        <v>0.8325586136836023</v>
       </c>
       <c r="L4">
-        <v>0.08387137737078731</v>
+        <v>0.3787836702202796</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2530547989891119</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.08731263722978966</v>
       </c>
       <c r="O4">
-        <v>0.5498460453092591</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.5886733537060067</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.838661348753277</v>
+        <v>1.838224530671766</v>
       </c>
       <c r="C5">
-        <v>0.8008891034344572</v>
+        <v>0.92101315895016</v>
       </c>
       <c r="D5">
-        <v>0.00146708607284296</v>
+        <v>0.0147188491157344</v>
       </c>
       <c r="E5">
-        <v>0.02881818322359919</v>
+        <v>0.04355000644018858</v>
       </c>
       <c r="F5">
-        <v>2.497576744145107</v>
+        <v>1.840332496280269</v>
       </c>
       <c r="G5">
-        <v>0.0008358660673232869</v>
+        <v>0.02674747171973912</v>
       </c>
       <c r="H5">
-        <v>0.01257211974716177</v>
+        <v>0.006411941312543079</v>
       </c>
       <c r="I5">
-        <v>0.01215410814714835</v>
+        <v>0.004215906147448045</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.266607026425113</v>
+        <v>0.8171485702922681</v>
       </c>
       <c r="L5">
-        <v>0.08072913510466506</v>
+        <v>0.3750685187209584</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.2458211267720003</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.08494194943298083</v>
       </c>
       <c r="O5">
-        <v>0.5282071199306984</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.5650296196531173</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.825356635764877</v>
+        <v>1.825007670790626</v>
       </c>
       <c r="C6">
-        <v>0.7964556180368447</v>
+        <v>0.9153405641273196</v>
       </c>
       <c r="D6">
-        <v>0.001464498523219171</v>
+        <v>0.01476881620372694</v>
       </c>
       <c r="E6">
-        <v>0.02867074582271911</v>
+        <v>0.04339739307927637</v>
       </c>
       <c r="F6">
-        <v>2.47997230798029</v>
+        <v>1.828540211478852</v>
       </c>
       <c r="G6">
-        <v>0.0008361375992734559</v>
+        <v>0.02710448954190969</v>
       </c>
       <c r="H6">
-        <v>0.01280048728011496</v>
+        <v>0.006543230650712717</v>
       </c>
       <c r="I6">
-        <v>0.01250517956457298</v>
+        <v>0.004443426880951229</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.257379464332317</v>
+        <v>0.812105435056182</v>
       </c>
       <c r="L6">
-        <v>0.0801058796330878</v>
+        <v>0.3734122435128668</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2438061754989711</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.08446896203280474</v>
       </c>
       <c r="O6">
-        <v>0.5249308885270239</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.5613716070013766</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.915854538480573</v>
+        <v>1.915047836567879</v>
       </c>
       <c r="C7">
-        <v>0.8363795619087568</v>
+        <v>0.9564328036816221</v>
       </c>
       <c r="D7">
-        <v>0.001583571761375913</v>
+        <v>0.01566365190988606</v>
       </c>
       <c r="E7">
-        <v>0.0299661071273114</v>
+        <v>0.044924373448465</v>
       </c>
       <c r="F7">
-        <v>2.553049058999093</v>
+        <v>1.856446474420082</v>
       </c>
       <c r="G7">
-        <v>0.0008343813257814986</v>
+        <v>0.02531923022097504</v>
       </c>
       <c r="H7">
-        <v>0.01134875420038733</v>
+        <v>0.005735451455148977</v>
       </c>
       <c r="I7">
-        <v>0.01113167358905276</v>
+        <v>0.003954875723359841</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.28751123109204</v>
+        <v>0.8154533758403133</v>
       </c>
       <c r="L7">
-        <v>0.08354853689835195</v>
+        <v>0.3717779430405272</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2472489172706034</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.08677322321185343</v>
       </c>
       <c r="O7">
-        <v>0.5504113216949165</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.5888673640422084</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.316760656013741</v>
+        <v>2.312398587248992</v>
       </c>
       <c r="C8">
-        <v>1.012134641999808</v>
+        <v>1.149941610678809</v>
       </c>
       <c r="D8">
-        <v>0.002132344516460716</v>
+        <v>0.01858809040181342</v>
       </c>
       <c r="E8">
-        <v>0.03571226226297952</v>
+        <v>0.0511995784671182</v>
       </c>
       <c r="F8">
-        <v>2.890579933050049</v>
+        <v>2.029695357136092</v>
       </c>
       <c r="G8">
-        <v>0.0008268474424183145</v>
+        <v>0.01836450030220504</v>
       </c>
       <c r="H8">
-        <v>0.006109191993904695</v>
+        <v>0.002834929560527222</v>
       </c>
       <c r="I8">
-        <v>0.006061620065257678</v>
+        <v>0.002109457238249846</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.429918094921476</v>
+        <v>0.8570202121143211</v>
       </c>
       <c r="L8">
-        <v>0.09910351480540669</v>
+        <v>0.3754974623900651</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2727762711882775</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.09767592215243681</v>
       </c>
       <c r="O8">
-        <v>0.6626053462630495</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.7102959428342928</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.110147548164775</v>
+        <v>3.092270653669004</v>
       </c>
       <c r="C9">
-        <v>1.362116514732406</v>
+        <v>1.555251052289691</v>
       </c>
       <c r="D9">
-        <v>0.003409220024278348</v>
+        <v>0.02246657316846878</v>
       </c>
       <c r="E9">
-        <v>0.04739098176716894</v>
+        <v>0.06278823859615734</v>
       </c>
       <c r="F9">
-        <v>3.584629158668065</v>
+        <v>2.454708024579944</v>
       </c>
       <c r="G9">
-        <v>0.0008128671975222779</v>
+        <v>0.007222725264583119</v>
       </c>
       <c r="H9">
-        <v>0.0006438820288363623</v>
+        <v>0.0001213527930503666</v>
       </c>
       <c r="I9">
-        <v>0.0009992850728819391</v>
+        <v>0.0008275974838607425</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.727030813045232</v>
+        <v>0.9820903103312801</v>
       </c>
       <c r="L9">
-        <v>0.1307967132817893</v>
+        <v>0.3979306668517069</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.3447102011890664</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1203467545107344</v>
       </c>
       <c r="O9">
-        <v>0.8839542062098005</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.94980142903146</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.705325271967183</v>
+        <v>3.672645028801412</v>
       </c>
       <c r="C10">
-        <v>1.620308860901389</v>
+        <v>1.808731511523774</v>
       </c>
       <c r="D10">
-        <v>0.004687408166204166</v>
+        <v>0.02871504327048058</v>
       </c>
       <c r="E10">
-        <v>0.05394263605994176</v>
+        <v>0.06968625341282753</v>
       </c>
       <c r="F10">
-        <v>4.007094401681172</v>
+        <v>2.593899733114071</v>
       </c>
       <c r="G10">
-        <v>0.0008033133626570432</v>
+        <v>0.01074531208170448</v>
       </c>
       <c r="H10">
-        <v>0.0002856313802990229</v>
+        <v>0.0004385981081171941</v>
       </c>
       <c r="I10">
-        <v>0.001271212842048008</v>
+        <v>0.00201567332888164</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.894627367739986</v>
+        <v>0.9885734952026652</v>
       </c>
       <c r="L10">
-        <v>0.1464494648251247</v>
+        <v>0.3821867110791715</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3683723503639342</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1282280853327649</v>
       </c>
       <c r="O10">
-        <v>1.037867225858932</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.11324332261583</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.033079487604311</v>
+        <v>3.999502604211671</v>
       </c>
       <c r="C11">
-        <v>1.665213185395999</v>
+        <v>1.752119339885837</v>
       </c>
       <c r="D11">
-        <v>0.006386933916339377</v>
+        <v>0.03439210106107993</v>
       </c>
       <c r="E11">
-        <v>0.03940811938912248</v>
+        <v>0.0517549073728869</v>
       </c>
       <c r="F11">
-        <v>3.461888625583725</v>
+        <v>2.025914987705164</v>
       </c>
       <c r="G11">
-        <v>0.0008009674153851617</v>
+        <v>0.04442350235276038</v>
       </c>
       <c r="H11">
-        <v>0.01889255573917836</v>
+        <v>0.01896646188924223</v>
       </c>
       <c r="I11">
-        <v>0.002236970102249103</v>
+        <v>0.002960057509241665</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.57729882188481</v>
+        <v>0.7138389209011748</v>
       </c>
       <c r="L11">
-        <v>0.09623785706358134</v>
+        <v>0.2783774090577396</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2677276931476271</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.08307444514014151</v>
       </c>
       <c r="O11">
-        <v>1.008087384973152</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.073041173784873</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.187298527006305</v>
+        <v>4.157027439441151</v>
       </c>
       <c r="C12">
-        <v>1.642264655431973</v>
+        <v>1.671012451714319</v>
       </c>
       <c r="D12">
-        <v>0.007555076043774367</v>
+        <v>0.03478041090428619</v>
       </c>
       <c r="E12">
-        <v>0.03204166499593919</v>
+        <v>0.04018776654701561</v>
       </c>
       <c r="F12">
-        <v>2.971295982753418</v>
+        <v>1.641944874773799</v>
       </c>
       <c r="G12">
-        <v>0.0008007706339880341</v>
+        <v>0.06892332231663545</v>
       </c>
       <c r="H12">
-        <v>0.05749800067872712</v>
+        <v>0.05754673266332588</v>
       </c>
       <c r="I12">
-        <v>0.002282200151909386</v>
+        <v>0.002967562468889184</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.315486090572065</v>
+        <v>0.549876464671172</v>
       </c>
       <c r="L12">
-        <v>0.07037093004487716</v>
+        <v>0.2197558345419708</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2039583560361251</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.06398272068395805</v>
       </c>
       <c r="O12">
-        <v>0.9493250760456533</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.005073920203195</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.214131813415293</v>
+        <v>4.190812452115267</v>
       </c>
       <c r="C13">
-        <v>1.570425953158122</v>
+        <v>1.584696764916202</v>
       </c>
       <c r="D13">
-        <v>0.00831310443427391</v>
+        <v>0.03017697696619948</v>
       </c>
       <c r="E13">
-        <v>0.02981561553857093</v>
+        <v>0.03374506401496202</v>
       </c>
       <c r="F13">
-        <v>2.472283430871599</v>
+        <v>1.372135483771814</v>
       </c>
       <c r="G13">
-        <v>0.0008022685757548471</v>
+        <v>0.06341006207056665</v>
       </c>
       <c r="H13">
-        <v>0.1131477758621742</v>
+        <v>0.1131790305306168</v>
       </c>
       <c r="I13">
-        <v>0.00192450980469161</v>
+        <v>0.002675209392584144</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.065291071608705</v>
+        <v>0.4501753803553612</v>
       </c>
       <c r="L13">
-        <v>0.06124966140890287</v>
+        <v>0.1861565993899106</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1624802650699202</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06236513027157109</v>
       </c>
       <c r="O13">
-        <v>0.8668345818510232</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.9139995546947901</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.175117939981533</v>
+        <v>4.158068948966729</v>
       </c>
       <c r="C14">
-        <v>1.499429357883457</v>
+        <v>1.521267127384817</v>
       </c>
       <c r="D14">
-        <v>0.008619902942336388</v>
+        <v>0.0255405798723416</v>
       </c>
       <c r="E14">
-        <v>0.03140946865068717</v>
+        <v>0.03308734630334476</v>
       </c>
       <c r="F14">
-        <v>2.123668914195505</v>
+        <v>1.223077659725746</v>
       </c>
       <c r="G14">
-        <v>0.0008040757739463666</v>
+        <v>0.0471374661375954</v>
       </c>
       <c r="H14">
-        <v>0.1624937766040517</v>
+        <v>0.162462836645588</v>
       </c>
       <c r="I14">
-        <v>0.001666494655391482</v>
+        <v>0.002454474199813816</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8978955170779912</v>
+        <v>0.4020130164516473</v>
       </c>
       <c r="L14">
-        <v>0.06500572015513839</v>
+        <v>0.170821004699345</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1411008956766366</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.07084375477104388</v>
       </c>
       <c r="O14">
-        <v>0.7993685232924008</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.8406790001978166</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.137751528440788</v>
+        <v>4.122901593272218</v>
       </c>
       <c r="C15">
-        <v>1.473183447441784</v>
+        <v>1.504079669697035</v>
       </c>
       <c r="D15">
-        <v>0.008582622875235479</v>
+        <v>0.02390818940256167</v>
       </c>
       <c r="E15">
-        <v>0.03202612931050286</v>
+        <v>0.03344744922254606</v>
       </c>
       <c r="F15">
-        <v>2.029202678718391</v>
+        <v>1.197197571600441</v>
       </c>
       <c r="G15">
-        <v>0.000804910466025274</v>
+        <v>0.03888872949409006</v>
       </c>
       <c r="H15">
-        <v>0.1750297625087143</v>
+        <v>0.1749545868254074</v>
       </c>
       <c r="I15">
-        <v>0.001678236910554354</v>
+        <v>0.002478577562484929</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8542006691986046</v>
+        <v>0.3960614200073742</v>
       </c>
       <c r="L15">
-        <v>0.066962763834713</v>
+        <v>0.1693768901350197</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1377582635630112</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.07389102947378845</v>
       </c>
       <c r="O15">
-        <v>0.7783299303143565</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.8181655997170694</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.872696741571588</v>
+        <v>3.86351793842573</v>
       </c>
       <c r="C16">
-        <v>1.379643383265943</v>
+        <v>1.471066091040143</v>
       </c>
       <c r="D16">
-        <v>0.007648966602183727</v>
+        <v>0.0188817110357995</v>
       </c>
       <c r="E16">
-        <v>0.02973754795146188</v>
+        <v>0.03292989203808716</v>
       </c>
       <c r="F16">
-        <v>1.954615462024194</v>
+        <v>1.298228699752045</v>
       </c>
       <c r="G16">
-        <v>0.0008086856500112494</v>
+        <v>0.01158173428254905</v>
       </c>
       <c r="H16">
-        <v>0.1626005440598135</v>
+        <v>0.1621924579113738</v>
       </c>
       <c r="I16">
-        <v>0.001586016989389094</v>
+        <v>0.002173482221024869</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8343427601014923</v>
+        <v>0.4542748642751775</v>
       </c>
       <c r="L16">
-        <v>0.06278023559069368</v>
+        <v>0.1931114075393765</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1560765248423621</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.0704436721260997</v>
       </c>
       <c r="O16">
-        <v>0.7320331695102738</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.7714431339403873</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.690849132098037</v>
+        <v>3.682611995498632</v>
       </c>
       <c r="C17">
-        <v>1.345733587914822</v>
+        <v>1.470750946535134</v>
       </c>
       <c r="D17">
-        <v>0.006826829111616028</v>
+        <v>0.0176510333414619</v>
       </c>
       <c r="E17">
-        <v>0.02658435085033739</v>
+        <v>0.03151043927155017</v>
       </c>
       <c r="F17">
-        <v>2.076333044438456</v>
+        <v>1.445608536038392</v>
       </c>
       <c r="G17">
-        <v>0.0008106394420239838</v>
+        <v>0.006181617781503057</v>
       </c>
       <c r="H17">
-        <v>0.1250954413416139</v>
+        <v>0.124444390014105</v>
       </c>
       <c r="I17">
-        <v>0.00173492861854907</v>
+        <v>0.002099458793080267</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9041371781266321</v>
+        <v>0.5234572625348548</v>
       </c>
       <c r="L17">
-        <v>0.05572576104197502</v>
+        <v>0.2201915673155384</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1800466073526437</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.06233046456361713</v>
       </c>
       <c r="O17">
-        <v>0.7318955078082325</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.7737978928767646</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.560519413699126</v>
+        <v>3.54973647618931</v>
       </c>
       <c r="C18">
-        <v>1.356091262382392</v>
+        <v>1.510218855569065</v>
       </c>
       <c r="D18">
-        <v>0.005991733239096408</v>
+        <v>0.01796615729174178</v>
       </c>
       <c r="E18">
-        <v>0.0254067269007362</v>
+        <v>0.03239430484834216</v>
       </c>
       <c r="F18">
-        <v>2.409141192857206</v>
+        <v>1.69779771961484</v>
       </c>
       <c r="G18">
-        <v>0.0008111280563967153</v>
+        <v>0.004914758608989711</v>
       </c>
       <c r="H18">
-        <v>0.07228641019938209</v>
+        <v>0.0716046241965671</v>
       </c>
       <c r="I18">
-        <v>0.001554061533715512</v>
+        <v>0.00180934434034441</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.078097402620628</v>
+        <v>0.633007923974084</v>
       </c>
       <c r="L18">
-        <v>0.05475085979677519</v>
+        <v>0.2613244847591005</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2206814559386174</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.0582747056350561</v>
       </c>
       <c r="O18">
-        <v>0.7712357708528188</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.8192693693710922</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.480586678924396</v>
+        <v>3.465031866012225</v>
       </c>
       <c r="C19">
-        <v>1.406702439202661</v>
+        <v>1.589657336982953</v>
       </c>
       <c r="D19">
-        <v>0.00518514986624119</v>
+        <v>0.01975502733601076</v>
       </c>
       <c r="E19">
-        <v>0.03050324308281116</v>
+        <v>0.04016475839442091</v>
       </c>
       <c r="F19">
-        <v>2.896165683278809</v>
+        <v>2.030700166396215</v>
       </c>
       <c r="G19">
-        <v>0.0008103323294532701</v>
+        <v>0.004253460330002401</v>
       </c>
       <c r="H19">
-        <v>0.02676283563315707</v>
+        <v>0.02628092827382744</v>
       </c>
       <c r="I19">
-        <v>0.001608908366192097</v>
+        <v>0.001998620493189662</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.329183492527633</v>
+        <v>0.773717080360008</v>
       </c>
       <c r="L19">
-        <v>0.07262383007076068</v>
+        <v>0.3129738341634933</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2745130428116198</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.07082428781783534</v>
       </c>
       <c r="O19">
-        <v>0.842445100631565</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.899348990731383</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.546530495558216</v>
+        <v>3.518983297316481</v>
       </c>
       <c r="C20">
-        <v>1.560583507486456</v>
+        <v>1.773049477434483</v>
       </c>
       <c r="D20">
-        <v>0.004440808292128229</v>
+        <v>0.02584369135557907</v>
       </c>
       <c r="E20">
-        <v>0.05232827550505981</v>
+        <v>0.0672210490667009</v>
       </c>
       <c r="F20">
-        <v>3.843342400819154</v>
+        <v>2.591159080067555</v>
       </c>
       <c r="G20">
-        <v>0.0008059048716114311</v>
+        <v>0.004650131446973127</v>
       </c>
       <c r="H20">
-        <v>0.0001182808077833108</v>
+        <v>0.0002031907988651049</v>
       </c>
       <c r="I20">
-        <v>0.001678582218733737</v>
+        <v>0.002502069988398858</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.815107340950078</v>
+        <v>1.00056085999131</v>
       </c>
       <c r="L20">
-        <v>0.1410098917895155</v>
+        <v>0.3911601890995087</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3674261126415459</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1262344208893253</v>
       </c>
       <c r="O20">
-        <v>0.9994940619519923</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.072887736224317</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.996709310203073</v>
+        <v>3.952411162665499</v>
       </c>
       <c r="C21">
-        <v>1.774201056390893</v>
+        <v>1.862235451825427</v>
       </c>
       <c r="D21">
-        <v>0.005334483723344108</v>
+        <v>0.04475407486889793</v>
       </c>
       <c r="E21">
-        <v>0.0615233206075132</v>
+        <v>0.08198065914895381</v>
       </c>
       <c r="F21">
-        <v>4.312572193945925</v>
+        <v>2.438692860134836</v>
       </c>
       <c r="G21">
-        <v>0.0007983288207689513</v>
+        <v>0.06511883797892892</v>
       </c>
       <c r="H21">
-        <v>0.0008886524076028302</v>
+        <v>0.0008271328782580856</v>
       </c>
       <c r="I21">
-        <v>0.003172550786180395</v>
+        <v>0.003675402830912056</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.021830425910679</v>
+        <v>0.8747404976892383</v>
       </c>
       <c r="L21">
-        <v>0.1662281801604877</v>
+        <v>0.3337365355149444</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3335493260170921</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1377044190957903</v>
       </c>
       <c r="O21">
-        <v>1.13626756694066</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.213876273658684</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.2972205469963</v>
+        <v>4.240600188630708</v>
       </c>
       <c r="C22">
-        <v>1.907811218050483</v>
+        <v>1.902069450968725</v>
       </c>
       <c r="D22">
-        <v>0.005983094321822646</v>
+        <v>0.06046921595154942</v>
       </c>
       <c r="E22">
-        <v>0.06625265991763918</v>
+        <v>0.09079760062202169</v>
       </c>
       <c r="F22">
-        <v>4.598849477578284</v>
+        <v>2.307932027492271</v>
       </c>
       <c r="G22">
-        <v>0.0007935217128214322</v>
+        <v>0.1538677958629009</v>
       </c>
       <c r="H22">
-        <v>0.002312820095002666</v>
+        <v>0.00165544458847422</v>
       </c>
       <c r="I22">
-        <v>0.004804051161501732</v>
+        <v>0.004391158145850227</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.148583779028257</v>
+        <v>0.7847016864441443</v>
       </c>
       <c r="L22">
-        <v>0.1792037459438305</v>
+        <v>0.2952700196424729</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3069483112226905</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1416349579639515</v>
       </c>
       <c r="O22">
-        <v>1.219336912288497</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.298307418291358</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.137508715548336</v>
+        <v>4.087605734567148</v>
       </c>
       <c r="C23">
-        <v>1.832812613068597</v>
+        <v>1.894952716185685</v>
       </c>
       <c r="D23">
-        <v>0.005586776926935766</v>
+        <v>0.04906673762809532</v>
       </c>
       <c r="E23">
-        <v>0.06361202643838482</v>
+        <v>0.08523648828403196</v>
       </c>
       <c r="F23">
-        <v>4.464537007683703</v>
+        <v>2.434263454128725</v>
       </c>
       <c r="G23">
-        <v>0.0007960434726286632</v>
+        <v>0.08812085026476524</v>
       </c>
       <c r="H23">
-        <v>0.001481132012620456</v>
+        <v>0.001208701109359112</v>
       </c>
       <c r="I23">
-        <v>0.003569046486629368</v>
+        <v>0.003676781383640915</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.093745016340748</v>
+        <v>0.8602821077514378</v>
       </c>
       <c r="L23">
-        <v>0.1726224062039918</v>
+        <v>0.3251070381846901</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3324672010479617</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1405065876955902</v>
       </c>
       <c r="O23">
-        <v>1.173895325616641</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.253025716845556</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.535512430348604</v>
+        <v>3.507291777564319</v>
       </c>
       <c r="C24">
-        <v>1.558954359017662</v>
+        <v>1.775966772240508</v>
       </c>
       <c r="D24">
-        <v>0.004281739143164653</v>
+        <v>0.02549222151745312</v>
       </c>
       <c r="E24">
-        <v>0.05408094915365247</v>
+        <v>0.06934437232434831</v>
       </c>
       <c r="F24">
-        <v>3.931487080637169</v>
+        <v>2.652807993241467</v>
       </c>
       <c r="G24">
-        <v>0.0008057890574848734</v>
+        <v>0.004421531555723668</v>
       </c>
       <c r="H24">
-        <v>2.134620703753143E-06</v>
+        <v>0.0001049649437643296</v>
       </c>
       <c r="I24">
-        <v>0.001204885218013985</v>
+        <v>0.001944161811148426</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.867257751015686</v>
+        <v>1.031471611025573</v>
       </c>
       <c r="L24">
-        <v>0.1476318573032529</v>
+        <v>0.4025093792329102</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3792452951046172</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1319258514636701</v>
       </c>
       <c r="O24">
-        <v>1.004969672710288</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.079598111508759</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.893380431691639</v>
+        <v>2.880281008167742</v>
       </c>
       <c r="C25">
-        <v>1.27133387002516</v>
+        <v>1.458541617211779</v>
       </c>
       <c r="D25">
-        <v>0.003088958633297501</v>
+        <v>0.02110488933134747</v>
       </c>
       <c r="E25">
-        <v>0.04430901457254599</v>
+        <v>0.05947269179782211</v>
       </c>
       <c r="F25">
-        <v>3.367730274772924</v>
+        <v>2.348608975367867</v>
       </c>
       <c r="G25">
-        <v>0.0008166238698160623</v>
+        <v>0.008458560085730316</v>
       </c>
       <c r="H25">
-        <v>0.001564895039190883</v>
+        <v>0.0004853484893305726</v>
       </c>
       <c r="I25">
-        <v>0.00218866029006648</v>
+        <v>0.001335277554749048</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.627134158086037</v>
+        <v>0.9510669453249818</v>
       </c>
       <c r="L25">
-        <v>0.1215822410148206</v>
+        <v>0.3932359405107988</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.3255140972144517</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1142479972790582</v>
       </c>
       <c r="O25">
-        <v>0.8252470024938034</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.8864142646329327</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
